--- a/CW3_Koesnadiexcel.xlsx
+++ b/CW3_Koesnadiexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyannabelle/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D33172-1C83-5645-9130-E63BA5279596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A58BE2E-CAF7-354D-A9F0-4F728396AB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{214EEE6B-DFEB-EA44-B687-65678324EE07}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="85">
   <si>
     <t>AIConnect Decision Model - Optimal Capacity Analysis</t>
   </si>
@@ -204,21 +204,6 @@
     <t>Optimal Capacity</t>
   </si>
   <si>
-    <t>Scenario 1: Base Case</t>
-  </si>
-  <si>
-    <t>Scenario 3: Lower Profit</t>
-  </si>
-  <si>
-    <t>Scenario 2: Higher Profit</t>
-  </si>
-  <si>
-    <t>Scenario 4: Higher Cost</t>
-  </si>
-  <si>
-    <t>Scenario 5: Lower Cost</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Expected Value</t>
   </si>
   <si>
@@ -276,9 +261,6 @@
     <t>Minimum Profit (at 40k Demand)</t>
   </si>
   <si>
-    <t>4 Units is £0.70 Higher</t>
-  </si>
-  <si>
     <t>4 Units earns £6,132 more</t>
   </si>
   <si>
@@ -300,16 +282,37 @@
     <t>Annual  Profit</t>
   </si>
   <si>
-    <t>Increase :20%</t>
-  </si>
-  <si>
-    <t>decrease: 20%</t>
-  </si>
-  <si>
-    <t>Decrease: 20%</t>
-  </si>
-  <si>
     <t>Results Of Sensitivity Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Units is £0.70 Higher </t>
+  </si>
+  <si>
+    <t>Profit per 1,000 Chats (£) increase 11.8%</t>
+  </si>
+  <si>
+    <t>Profit per 1,000 Chats (£) decrease11.8%</t>
+  </si>
+  <si>
+    <t>Server Cost per Unit (£) increase 12.5%</t>
+  </si>
+  <si>
+    <t>Server Cost per Unit (£) decrease 12.5%</t>
+  </si>
+  <si>
+    <t>Base Case (Optimal Option before sensitvity analysis)</t>
+  </si>
+  <si>
+    <t>Scenario 1: Higher Profit</t>
+  </si>
+  <si>
+    <t>Scenario 2: Lower Profit</t>
+  </si>
+  <si>
+    <t>Scenario 3: Higher Cost</t>
+  </si>
+  <si>
+    <t>Scenario 4: Lower Cost</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,6 +395,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -431,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -526,15 +535,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -573,7 +573,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,7 +623,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -642,15 +641,14 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -662,7 +660,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -672,10 +670,17 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,10 +692,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -711,13 +722,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,14 +735,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1077,21 +1087,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD18035-24F9-AE41-8417-D1368BF8FE21}">
   <dimension ref="A1:V160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:F142"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70.1640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" customWidth="1"/>
     <col min="12" max="12" width="36.83203125" customWidth="1"/>
     <col min="13" max="13" width="33.33203125" customWidth="1"/>
     <col min="14" max="14" width="31.33203125" customWidth="1"/>
@@ -1102,49 +1114,122 @@
     <col min="19" max="19" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E2" s="76"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" s="76"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" s="76"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E5" s="76"/>
+      <c r="H5" s="57"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1154,8 +1239,16 @@
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>40</v>
       </c>
@@ -1167,7 +1260,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>60</v>
       </c>
@@ -1179,7 +1272,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>80</v>
       </c>
@@ -1191,7 +1284,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>100</v>
       </c>
@@ -1203,7 +1296,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>120</v>
       </c>
@@ -1241,37 +1334,37 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="L21" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="33"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="L21" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="32"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -1284,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>13</v>
@@ -1298,13 +1391,13 @@
       <c r="H22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -1338,25 +1431,25 @@
         <f>G23*B23</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="26" t="s">
-        <v>55</v>
+      <c r="M23" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="R23" s="33"/>
+        <v>53</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="32"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1378,21 +1471,21 @@
         <v>68</v>
       </c>
       <c r="F24" s="12">
-        <f t="shared" ref="F24:F28" si="3">2*$B$5</f>
+        <f>2*$B$5</f>
         <v>32</v>
       </c>
       <c r="G24" s="12">
-        <f t="shared" ref="G24:G28" si="4">E24-F24</f>
+        <f t="shared" ref="G24:G28" si="3">E24-F24</f>
         <v>36</v>
       </c>
       <c r="H24" s="12">
         <f>G24*B24</f>
         <v>5.3999999999999995</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="33">
         <v>40000</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24" s="24">
         <v>0.15</v>
       </c>
       <c r="N24" s="20">
@@ -1403,15 +1496,15 @@
         <f>MIN(40,80)</f>
         <v>40</v>
       </c>
-      <c r="P24" s="34">
-        <f t="shared" ref="P24:P29" si="5">L24*M24</f>
+      <c r="P24" s="33">
+        <f>L24*M24</f>
         <v>6000</v>
       </c>
-      <c r="Q24" s="35">
+      <c r="Q24" s="34">
         <f>40000*M24</f>
         <v>6000</v>
       </c>
-      <c r="R24" s="33"/>
+      <c r="R24" s="32"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1429,11 +1522,11 @@
         <v>40</v>
       </c>
       <c r="E25" s="12">
-        <f t="shared" ref="E25:E28" si="6">MIN(A14,C25)*1.7</f>
+        <f>MIN(A14,C25)*1.7</f>
         <v>68</v>
       </c>
       <c r="F25" s="12">
-        <f t="shared" si="3"/>
+        <f>2*$B$5</f>
         <v>32</v>
       </c>
       <c r="G25" s="12">
@@ -1441,32 +1534,32 @@
         <v>36</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" ref="H25:H28" si="7">G25*B25</f>
+        <f>G25*B25</f>
         <v>9</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="33">
         <v>60000</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="24">
         <v>0.15</v>
       </c>
       <c r="N25" s="20">
-        <f t="shared" ref="N25:N29" si="8">4*20</f>
+        <f t="shared" ref="N25:N29" si="4">4*20</f>
         <v>80</v>
       </c>
       <c r="O25" s="11">
         <f>MIN(60,N25)</f>
         <v>60</v>
       </c>
-      <c r="P25" s="34">
-        <f t="shared" si="5"/>
+      <c r="P25" s="33">
+        <f>L25*M25</f>
         <v>9000</v>
       </c>
-      <c r="Q25" s="35">
+      <c r="Q25" s="34">
         <f>60000*M25</f>
         <v>9000</v>
       </c>
-      <c r="R25" s="33"/>
+      <c r="R25" s="32"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -1484,44 +1577,44 @@
         <v>40</v>
       </c>
       <c r="E26" s="12">
-        <f t="shared" si="6"/>
+        <f>MIN(A15,C26)*1.7</f>
         <v>68</v>
       </c>
       <c r="F26" s="12">
+        <f>2*$B$5</f>
+        <v>32</v>
+      </c>
+      <c r="G26" s="12">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="G26" s="12">
+        <v>36</v>
+      </c>
+      <c r="H26" s="12">
+        <f>G26*B26</f>
+        <v>9</v>
+      </c>
+      <c r="L26" s="33">
+        <v>80000</v>
+      </c>
+      <c r="M26" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="N26" s="20">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H26" s="12">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="L26" s="34">
-        <v>80000</v>
-      </c>
-      <c r="M26" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="N26" s="20">
-        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="O26" s="11">
         <f>MIN(80,N26)</f>
         <v>80</v>
       </c>
-      <c r="P26" s="34">
-        <f t="shared" si="5"/>
+      <c r="P26" s="33">
+        <f>L26*M26</f>
         <v>20000</v>
       </c>
-      <c r="Q26" s="35">
+      <c r="Q26" s="34">
         <f>80000*M26</f>
         <v>20000</v>
       </c>
-      <c r="R26" s="33"/>
+      <c r="R26" s="32"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
@@ -1539,44 +1632,44 @@
         <v>40</v>
       </c>
       <c r="E27" s="12">
-        <f t="shared" si="6"/>
+        <f>MIN(A16,C27)*1.7</f>
         <v>68</v>
       </c>
       <c r="F27" s="12">
+        <f>2*$B$5</f>
+        <v>32</v>
+      </c>
+      <c r="G27" s="12">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="G27" s="12">
+        <v>36</v>
+      </c>
+      <c r="H27" s="12">
+        <f>G27*B27</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="L27" s="33">
+        <v>100000</v>
+      </c>
+      <c r="M27" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="N27" s="20">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H27" s="12">
-        <f t="shared" si="7"/>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="L27" s="34">
-        <v>100000</v>
-      </c>
-      <c r="M27" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="N27" s="20">
-        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="O27" s="11">
         <f>MIN(100,N27)</f>
         <v>80</v>
       </c>
-      <c r="P27" s="34">
-        <f t="shared" si="5"/>
+      <c r="P27" s="33">
+        <f>L27*M27</f>
         <v>25000</v>
       </c>
-      <c r="Q27" s="35">
+      <c r="Q27" s="34">
         <f>80000*M27</f>
         <v>20000</v>
       </c>
-      <c r="R27" s="33"/>
+      <c r="R27" s="32"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1594,126 +1687,126 @@
         <v>40</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="6"/>
+        <f>MIN(A17,C28)*1.7</f>
         <v>68</v>
       </c>
       <c r="F28" s="12">
+        <f>2*$B$5</f>
+        <v>32</v>
+      </c>
+      <c r="G28" s="12">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="G28" s="12">
+        <v>36</v>
+      </c>
+      <c r="H28" s="12">
+        <f>G28*B28</f>
+        <v>1.8</v>
+      </c>
+      <c r="L28" s="33">
+        <v>120000</v>
+      </c>
+      <c r="M28" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="N28" s="20">
         <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H28" s="12">
-        <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="L28" s="34">
-        <v>120000</v>
-      </c>
-      <c r="M28" s="25">
-        <v>0.15</v>
-      </c>
-      <c r="N28" s="20">
-        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="O28" s="11">
         <f>MIN(120,80)</f>
         <v>80</v>
       </c>
-      <c r="P28" s="34">
-        <f t="shared" si="5"/>
+      <c r="P28" s="33">
+        <f>L28*M28</f>
         <v>18000</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <f>80000*M28</f>
         <v>12000</v>
       </c>
-      <c r="R28" s="33"/>
+      <c r="R28" s="32"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72"/>
       <c r="H29" s="12">
         <f>SUMPRODUCT(G23:G28,B23:B28)</f>
         <v>35.999999999999993</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L29" s="33">
         <v>140000</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="37">
         <v>0.05</v>
       </c>
-      <c r="N29" s="50">
-        <f t="shared" si="8"/>
+      <c r="N29" s="48">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="38">
         <f>MIN(L29,N29)</f>
         <v>80</v>
       </c>
-      <c r="P29" s="40">
-        <f t="shared" si="5"/>
+      <c r="P29" s="39">
+        <f>L29*M29</f>
         <v>7000</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="40">
         <f>80000*M29</f>
         <v>4000</v>
       </c>
-      <c r="R29" s="33"/>
+      <c r="R29" s="32"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L30" s="37" t="s">
+      <c r="L30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="42">
+      <c r="M30" s="41">
         <f>SUM(M24:M29)</f>
         <v>1</v>
       </c>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="43">
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="42">
         <f>SUM(P24:P29)</f>
         <v>85000</v>
       </c>
-      <c r="Q30" s="52">
+      <c r="Q30" s="50">
         <f>SUM(Q24:Q29)</f>
         <v>71000</v>
       </c>
-      <c r="R30" s="33"/>
+      <c r="R30" s="32"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="62"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q31" s="54">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q31" s="52">
         <f>Q30/P30</f>
         <v>0.83529411764705885</v>
       </c>
-      <c r="R31" s="33"/>
+      <c r="R31" s="32"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -1726,7 +1819,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>13</v>
@@ -1740,13 +1833,13 @@
       <c r="H32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1780,26 +1873,26 @@
         <f>G33*B33</f>
         <v>3</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="M33" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="N33" s="26" t="s">
+      <c r="M33" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="N33" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="O33" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P33" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q33" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>65</v>
+      <c r="O33" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
@@ -1811,7 +1904,7 @@
         <v>0.15</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ref="C34:C38" si="9">3*20</f>
+        <f t="shared" ref="C34:C38" si="5">3*20</f>
         <v>60</v>
       </c>
       <c r="D34" s="11">
@@ -1819,7 +1912,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" ref="E34:E38" si="10">D34*1.7</f>
+        <f>D34*1.7</f>
         <v>102</v>
       </c>
       <c r="F34" s="15">
@@ -1827,35 +1920,35 @@
         <v>48</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" ref="G34:G38" si="11">E34-F34</f>
+        <f t="shared" ref="G34:G38" si="6">E34-F34</f>
         <v>54</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" ref="H34:H38" si="12">G34*B34</f>
+        <f>G34*B34</f>
         <v>8.1</v>
       </c>
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="M34" s="25">
+      <c r="M34" s="24">
         <v>80</v>
       </c>
-      <c r="N34" s="25">
+      <c r="N34" s="24">
         <v>0.25</v>
       </c>
-      <c r="O34" s="45">
+      <c r="O34" s="43">
         <f>E45</f>
         <v>136</v>
       </c>
-      <c r="P34" s="45">
+      <c r="P34" s="43">
         <f>E55</f>
         <v>136</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="43">
         <f>P34-O34</f>
         <v>0</v>
       </c>
-      <c r="R34" s="45">
+      <c r="R34" s="43">
         <f>Q34*N34</f>
         <v>0</v>
       </c>
@@ -1869,15 +1962,15 @@
         <v>0.25</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D35" s="11">
-        <f t="shared" ref="D35:D38" si="13">MIN(A35,C35)</f>
+        <f t="shared" ref="D35:D38" si="7">MIN(A35,C35)</f>
         <v>60</v>
       </c>
       <c r="E35" s="12">
-        <f t="shared" si="10"/>
+        <f>D35*1.7</f>
         <v>102</v>
       </c>
       <c r="F35" s="15">
@@ -1885,35 +1978,35 @@
         <v>48</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="H35" s="12">
-        <f t="shared" si="12"/>
+        <f>G35*B35</f>
         <v>13.5</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M35" s="25">
+      <c r="M35" s="24">
         <v>100</v>
       </c>
-      <c r="N35" s="25">
+      <c r="N35" s="24">
         <v>0.25</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="43">
         <f>E46</f>
         <v>136</v>
       </c>
-      <c r="P35" s="55">
+      <c r="P35" s="53">
         <f>E56</f>
         <v>170</v>
       </c>
-      <c r="Q35" s="45">
-        <f t="shared" ref="Q35:Q37" si="14">P35-O35</f>
+      <c r="Q35" s="43">
+        <f t="shared" ref="Q35:Q37" si="8">P35-O35</f>
         <v>34</v>
       </c>
-      <c r="R35" s="45">
+      <c r="R35" s="43">
         <f>Q35*N35</f>
         <v>8.5</v>
       </c>
@@ -1927,15 +2020,15 @@
         <v>0.25</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="E36" s="12">
-        <f t="shared" si="10"/>
+        <f>D36*1.7</f>
         <v>102</v>
       </c>
       <c r="F36" s="15">
@@ -1943,36 +2036,36 @@
         <v>48</v>
       </c>
       <c r="G36" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="12"/>
+        <f>G36*B36</f>
         <v>13.5</v>
       </c>
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="25">
+      <c r="M36" s="24">
         <v>120</v>
       </c>
-      <c r="N36" s="25">
+      <c r="N36" s="24">
         <v>0.15</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="43">
         <f>E47</f>
         <v>136</v>
       </c>
-      <c r="P36" s="45">
+      <c r="P36" s="43">
         <f>E57</f>
         <v>170</v>
       </c>
-      <c r="Q36" s="45">
-        <f t="shared" si="14"/>
+      <c r="Q36" s="43">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="R36" s="45">
-        <f t="shared" ref="R36:R37" si="15">Q36*N36</f>
+      <c r="R36" s="43">
+        <f t="shared" ref="R36:R37" si="9">Q36*N36</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -1985,52 +2078,52 @@
         <v>0.15</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="E37" s="12">
-        <f t="shared" si="10"/>
+        <f>D37*1.7</f>
         <v>102</v>
       </c>
       <c r="F37" s="15">
-        <f t="shared" ref="F37:F38" si="16">3*$B$5</f>
+        <f>3*$B$5</f>
         <v>48</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="12"/>
+        <f>G37*B37</f>
         <v>8.1</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="L37" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="25">
+      <c r="M37" s="24">
         <v>140</v>
       </c>
-      <c r="N37" s="25">
+      <c r="N37" s="24">
         <v>0.05</v>
       </c>
-      <c r="O37" s="45">
+      <c r="O37" s="43">
         <f>E48</f>
         <v>136</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="43">
         <f>E58</f>
         <v>170</v>
       </c>
-      <c r="Q37" s="45">
-        <f t="shared" si="14"/>
+      <c r="Q37" s="43">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="R37" s="45">
-        <f t="shared" si="15"/>
+      <c r="R37" s="43">
+        <f t="shared" si="9"/>
         <v>1.7000000000000002</v>
       </c>
     </row>
@@ -2042,91 +2135,91 @@
         <v>0.05</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="10"/>
+        <f>D38*1.7</f>
         <v>102</v>
       </c>
       <c r="F38" s="15">
-        <f t="shared" si="16"/>
+        <f>3*$B$5</f>
         <v>48</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="12"/>
+        <f>G38*B38</f>
         <v>2.7</v>
       </c>
-      <c r="L38" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="57">
+      <c r="L38" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="55">
         <f>SUM(R34:R37)</f>
         <v>15.3</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="64"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
       <c r="H39" s="12">
         <f>SUMPRODUCT( G33:G38,B33:B38)</f>
         <v>48.900000000000006</v>
       </c>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="60" t="s">
+      <c r="A41" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="62"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="65"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -2139,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>13</v>
@@ -2153,13 +2246,13 @@
       <c r="H42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -2193,21 +2286,21 @@
         <f>G43*B43</f>
         <v>0.6</v>
       </c>
-      <c r="L43" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="O43" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
+      <c r="L43" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="M43" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N43" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
@@ -2218,7 +2311,7 @@
         <v>0.15</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ref="C44:C48" si="17">4*20</f>
+        <f t="shared" ref="C44:C48" si="10">4*20</f>
         <v>80</v>
       </c>
       <c r="D44" s="11">
@@ -2230,11 +2323,11 @@
         <v>102</v>
       </c>
       <c r="F44" s="15">
-        <f t="shared" ref="F44:F48" si="18">4*$B$5</f>
+        <f>4*$B$5</f>
         <v>64</v>
       </c>
       <c r="G44" s="12">
-        <f t="shared" ref="G44:G48" si="19">E44-F44</f>
+        <f t="shared" ref="G44:G48" si="11">E44-F44</f>
         <v>38</v>
       </c>
       <c r="H44" s="12">
@@ -2242,20 +2335,20 @@
         <v>5.7</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="O44" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
+        <v>75</v>
+      </c>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -2266,7 +2359,7 @@
         <v>0.25</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D45" s="11">
@@ -2278,34 +2371,34 @@
         <v>136</v>
       </c>
       <c r="F45" s="15">
-        <f t="shared" si="18"/>
+        <f>4*$B$5</f>
         <v>64</v>
       </c>
       <c r="G45" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="H45" s="12">
-        <f t="shared" ref="H45:H48" si="20">G45*B45</f>
+        <f>G45*B45</f>
         <v>18</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="M45" s="46">
+        <v>73</v>
+      </c>
+      <c r="M45" s="44">
         <f>H49*(24*365)</f>
         <v>496691.99999999994</v>
       </c>
-      <c r="N45" s="47">
+      <c r="N45" s="45">
         <f>H59*(24*365)</f>
         <v>490560</v>
       </c>
       <c r="O45" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
@@ -2316,7 +2409,7 @@
         <v>0.25</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D46" s="11">
@@ -2324,38 +2417,38 @@
         <v>80</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" ref="E46:E48" si="21">D46*1.7</f>
+        <f>D46*1.7</f>
         <v>136</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="18"/>
+        <f>4*$B$5</f>
         <v>64</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="20"/>
+        <f>G46*B46</f>
         <v>18</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" s="48">
+        <v>65</v>
+      </c>
+      <c r="M46" s="46">
         <f>F45</f>
         <v>64</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="46">
         <f>F56</f>
         <v>80</v>
       </c>
       <c r="O46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
+        <v>68</v>
+      </c>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
+      <c r="R46" s="32"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2366,7 +2459,7 @@
         <v>0.15</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D47" s="11">
@@ -2374,38 +2467,38 @@
         <v>80</v>
       </c>
       <c r="E47" s="12">
-        <f t="shared" si="21"/>
+        <f>D47*1.7</f>
         <v>136</v>
       </c>
       <c r="F47" s="15">
-        <f t="shared" si="18"/>
+        <f>4*$B$5</f>
         <v>64</v>
       </c>
       <c r="G47" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="H47" s="12">
-        <f t="shared" si="20"/>
+        <f>G47*B47</f>
         <v>10.799999999999999</v>
       </c>
       <c r="L47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M47" s="47">
+        <v>66</v>
+      </c>
+      <c r="M47" s="45">
         <f>G43</f>
         <v>4</v>
       </c>
-      <c r="N47" s="47">
+      <c r="N47" s="45">
         <f>G53</f>
         <v>-12</v>
       </c>
       <c r="O47" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
+        <v>69</v>
+      </c>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -2415,7 +2508,7 @@
         <v>0.05</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D48" s="11">
@@ -2423,49 +2516,54 @@
         <v>80</v>
       </c>
       <c r="E48" s="12">
-        <f t="shared" si="21"/>
+        <f>D48*1.7</f>
         <v>136</v>
       </c>
       <c r="F48" s="15">
-        <f t="shared" si="18"/>
+        <f>4*$B$5</f>
         <v>64</v>
       </c>
       <c r="G48" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
       <c r="H48" s="12">
-        <f t="shared" si="20"/>
+        <f>G48*B48</f>
         <v>3.6</v>
       </c>
-      <c r="N48" s="49"/>
+      <c r="N48" s="47"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="67"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="72"/>
       <c r="H49" s="12">
         <f>SUMPRODUCT(G43:G48,B43:B48)</f>
         <v>56.699999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="62"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="65"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
@@ -2478,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>13</v>
@@ -2492,6 +2590,11 @@
       <c r="H52" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
@@ -2525,6 +2628,11 @@
         <f>B53*G53</f>
         <v>-1.7999999999999998</v>
       </c>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -2535,7 +2643,7 @@
         <v>0.15</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" ref="C54:C58" si="22">5*20</f>
+        <f t="shared" ref="C54:C58" si="12">5*20</f>
         <v>100</v>
       </c>
       <c r="D54" s="11">
@@ -2551,14 +2659,18 @@
         <v>80</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" ref="G54:G58" si="23">E54-F54</f>
+        <f t="shared" ref="G54:G58" si="13">E54-F54</f>
         <v>22</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" ref="H54:H58" si="24">B54*G54</f>
+        <f>B54*G54</f>
         <v>3.3</v>
       </c>
-      <c r="N54" s="44"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="23"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -2569,7 +2681,7 @@
         <v>0.25</v>
       </c>
       <c r="C55" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="D55" s="11">
@@ -2577,7 +2689,7 @@
         <v>80</v>
       </c>
       <c r="E55" s="12">
-        <f t="shared" ref="E55:E58" si="25">D55*1.7</f>
+        <f>D55*1.7</f>
         <v>136</v>
       </c>
       <c r="F55" s="15">
@@ -2585,13 +2697,18 @@
         <v>80</v>
       </c>
       <c r="G55" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="H55" s="12">
-        <f t="shared" si="24"/>
+        <f>B55*G55</f>
         <v>14</v>
       </c>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
@@ -2602,7 +2719,7 @@
         <v>0.25</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="D56" s="11">
@@ -2610,22 +2727,26 @@
         <v>100</v>
       </c>
       <c r="E56" s="12">
-        <f t="shared" si="25"/>
+        <f>D56*1.7</f>
         <v>170</v>
       </c>
       <c r="F56" s="15">
-        <f t="shared" ref="F56:F58" si="26">5*16</f>
+        <f t="shared" ref="F56:F58" si="14">5*16</f>
         <v>80</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="H56" s="12">
-        <f t="shared" si="24"/>
+        <f>B56*G56</f>
         <v>22.5</v>
       </c>
-      <c r="M56" s="23"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
@@ -2636,7 +2757,7 @@
         <v>0.15</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="D57" s="11">
@@ -2648,17 +2769,22 @@
         <v>170</v>
       </c>
       <c r="F57" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="24"/>
+        <f>B57*G57</f>
         <v>13.5</v>
       </c>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
@@ -2668,7 +2794,7 @@
         <v>0.05</v>
       </c>
       <c r="C58" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="D58" s="11">
@@ -2676,48 +2802,48 @@
         <v>100</v>
       </c>
       <c r="E58" s="12">
-        <f t="shared" si="25"/>
+        <f>D58*1.7</f>
         <v>170</v>
       </c>
       <c r="F58" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="G58" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="H58" s="12">
-        <f t="shared" si="24"/>
+        <f>B58*G58</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="12">
         <f>SUMPRODUCT(G53:G58,B53:B58)</f>
         <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="60" t="s">
+      <c r="A61" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="62"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="65"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
@@ -2730,7 +2856,7 @@
         <v>24</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>13</v>
@@ -2792,7 +2918,7 @@
         <v>0.15</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ref="C64:C68" si="27">6*20</f>
+        <f t="shared" ref="C64:C68" si="15">6*20</f>
         <v>120</v>
       </c>
       <c r="D64" s="11">
@@ -2804,22 +2930,22 @@
         <v>102</v>
       </c>
       <c r="F64" s="15">
-        <f t="shared" ref="F64:F68" si="28">6*B$5</f>
+        <f>6*B$5</f>
         <v>96</v>
       </c>
       <c r="G64" s="12">
-        <f t="shared" ref="G64:G68" si="29">E64-F64</f>
+        <f t="shared" ref="G64:G68" si="16">E64-F64</f>
         <v>6</v>
       </c>
       <c r="H64" s="12">
-        <f t="shared" ref="H64:H68" si="30">G64*B64</f>
+        <f>G64*B64</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
       <c r="S64" s="22"/>
-      <c r="T64" s="30"/>
+      <c r="T64" s="29"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -2830,7 +2956,7 @@
         <v>0.25</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="D65" s="11">
@@ -2842,22 +2968,22 @@
         <v>136</v>
       </c>
       <c r="F65" s="15">
-        <f t="shared" si="28"/>
+        <f>6*B$5</f>
         <v>96</v>
       </c>
       <c r="G65" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>40</v>
       </c>
       <c r="H65" s="12">
-        <f t="shared" si="30"/>
+        <f>G65*B65</f>
         <v>10</v>
       </c>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
       <c r="S65" s="22"/>
-      <c r="T65" s="30"/>
+      <c r="T65" s="29"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -2868,7 +2994,7 @@
         <v>0.25</v>
       </c>
       <c r="C66" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="D66" s="11">
@@ -2880,21 +3006,21 @@
         <v>170</v>
       </c>
       <c r="F66" s="15">
-        <f t="shared" si="28"/>
+        <f>6*B$5</f>
         <v>96</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>74</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="30"/>
+        <f>G66*B66</f>
         <v>18.5</v>
       </c>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
       <c r="S66" s="22"/>
-      <c r="T66" s="30"/>
+      <c r="T66" s="29"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
@@ -2905,7 +3031,7 @@
         <v>0.15</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="D67" s="11">
@@ -2917,21 +3043,21 @@
         <v>204</v>
       </c>
       <c r="F67" s="15">
-        <f t="shared" si="28"/>
+        <f>6*B$5</f>
         <v>96</v>
       </c>
       <c r="G67" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="H67" s="12">
-        <f t="shared" si="30"/>
+        <f>G67*B67</f>
         <v>16.2</v>
       </c>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
       <c r="S67" s="22"/>
-      <c r="T67" s="30"/>
+      <c r="T67" s="29"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -2941,7 +3067,7 @@
         <v>0.05</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="D68" s="11">
@@ -2953,40 +3079,40 @@
         <v>204</v>
       </c>
       <c r="F68" s="15">
-        <f t="shared" si="28"/>
+        <f>6*B$5</f>
         <v>96</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="30"/>
+        <f>G68*B68</f>
         <v>5.4</v>
       </c>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
       <c r="S68" s="22"/>
-      <c r="T68" s="30"/>
+      <c r="T68" s="29"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="67"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="72"/>
       <c r="H69" s="12">
         <f>SUMPRODUCT(G63:G68,B63:B68)</f>
         <v>46.8</v>
       </c>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
       <c r="S69" s="22"/>
-      <c r="T69" s="30"/>
+      <c r="T69" s="29"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="Q70" s="22"/>
@@ -2995,16 +3121,16 @@
       <c r="T70" s="21"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="62"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="65"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
@@ -3017,7 +3143,7 @@
         <v>24</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>13</v>
@@ -3074,7 +3200,7 @@
         <v>0.15</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C78" si="31">7*20</f>
+        <f t="shared" ref="C74:C78" si="17">7*20</f>
         <v>140</v>
       </c>
       <c r="D74" s="11">
@@ -3086,15 +3212,15 @@
         <v>102</v>
       </c>
       <c r="F74" s="15">
-        <f t="shared" ref="F74:F78" si="32">7*B$5</f>
+        <f>7*B$5</f>
         <v>112</v>
       </c>
       <c r="G74" s="12">
-        <f t="shared" ref="G74:G78" si="33">E74-F74</f>
+        <f t="shared" ref="G74:G78" si="18">E74-F74</f>
         <v>-10</v>
       </c>
       <c r="H74" s="12">
-        <f t="shared" ref="H74:H78" si="34">G74*B74</f>
+        <f>G74*B74</f>
         <v>-1.5</v>
       </c>
     </row>
@@ -3107,7 +3233,7 @@
         <v>0.25</v>
       </c>
       <c r="C75" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="D75" s="11">
@@ -3115,19 +3241,19 @@
         <v>80</v>
       </c>
       <c r="E75" s="12">
-        <f t="shared" ref="E75:E78" si="35">D75*B$4</f>
+        <f>D75*B$4</f>
         <v>136</v>
       </c>
       <c r="F75" s="15">
-        <f t="shared" si="32"/>
+        <f>7*B$5</f>
         <v>112</v>
       </c>
       <c r="G75" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="H75" s="12">
-        <f t="shared" si="34"/>
+        <f>G75*B75</f>
         <v>6</v>
       </c>
     </row>
@@ -3140,7 +3266,7 @@
         <v>0.25</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="D76" s="11">
@@ -3148,19 +3274,19 @@
         <v>100</v>
       </c>
       <c r="E76" s="12">
-        <f t="shared" si="35"/>
+        <f>D76*B$4</f>
         <v>170</v>
       </c>
       <c r="F76" s="15">
-        <f t="shared" si="32"/>
+        <f>7*B$5</f>
         <v>112</v>
       </c>
       <c r="G76" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="18"/>
         <v>58</v>
       </c>
       <c r="H76" s="12">
-        <f t="shared" si="34"/>
+        <f>G76*B76</f>
         <v>14.5</v>
       </c>
     </row>
@@ -3173,7 +3299,7 @@
         <v>0.15</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="D77" s="11">
@@ -3181,19 +3307,19 @@
         <v>120</v>
       </c>
       <c r="E77" s="12">
-        <f t="shared" si="35"/>
+        <f>D77*B$4</f>
         <v>204</v>
       </c>
       <c r="F77" s="15">
-        <f t="shared" si="32"/>
+        <f>7*B$5</f>
         <v>112</v>
       </c>
       <c r="G77" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="18"/>
         <v>92</v>
       </c>
       <c r="H77" s="12">
-        <f t="shared" si="34"/>
+        <f>G77*B77</f>
         <v>13.799999999999999</v>
       </c>
     </row>
@@ -3205,7 +3331,7 @@
         <v>0.05</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="17"/>
         <v>140</v>
       </c>
       <c r="D78" s="11">
@@ -3213,59 +3339,59 @@
         <v>140</v>
       </c>
       <c r="E78" s="12">
-        <f t="shared" si="35"/>
+        <f>D78*B$4</f>
         <v>238</v>
       </c>
       <c r="F78" s="15">
-        <f t="shared" si="32"/>
+        <f>7*B$5</f>
         <v>112</v>
       </c>
       <c r="G78" s="12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="18"/>
         <v>126</v>
       </c>
       <c r="H78" s="12">
-        <f t="shared" si="34"/>
+        <f>G78*B78</f>
         <v>6.3000000000000007</v>
       </c>
-      <c r="S78" s="33"/>
-      <c r="T78" s="33"/>
+      <c r="S78" s="32"/>
+      <c r="T78" s="32"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="67"/>
+      <c r="B79" s="71"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="72"/>
       <c r="H79" s="12">
         <f>SUMPRODUCT(G73:G78,B73:B78)</f>
         <v>32.5</v>
       </c>
-      <c r="R79" s="32"/>
-      <c r="S79" s="33"/>
-      <c r="T79" s="33"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="32"/>
+      <c r="T79" s="32"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="R80" s="32"/>
-      <c r="S80" s="33"/>
-      <c r="T80" s="33"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="32"/>
+      <c r="T80" s="32"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A81" s="71" t="s">
+      <c r="A81" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="82"/>
       <c r="F81" s="16"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="33"/>
-      <c r="T81" s="33"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="32"/>
+      <c r="T81" s="32"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
@@ -3283,9 +3409,9 @@
       <c r="E82" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R82" s="32"/>
-      <c r="S82" s="33"/>
-      <c r="T82" s="33"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="32"/>
+      <c r="T82" s="32"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
@@ -3301,9 +3427,9 @@
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
-      <c r="R83" s="32"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
@@ -3319,9 +3445,9 @@
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
-      <c r="R84" s="32"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
     </row>
     <row r="85" spans="1:22" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
@@ -3343,10 +3469,10 @@
         <f>INDEX($B$81:$B$86, MATCH(MAX($C$81:$C$86), $C$81:$C$86, 0))</f>
         <v>80</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
+      <c r="F85" s="23"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="32"/>
+      <c r="V85" s="32"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
@@ -3362,9 +3488,9 @@
       </c>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
+      <c r="T86" s="32"/>
+      <c r="U86" s="32"/>
+      <c r="V86" s="32"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
@@ -3401,28 +3527,28 @@
       <c r="B89" s="13"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A90" s="68" t="s">
+      <c r="A90" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="70"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="75"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A91" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="75"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="75"/>
-      <c r="E91" s="76"/>
+      <c r="A91" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="79"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="80"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A92" s="73" t="s">
+      <c r="A92" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="56" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3453,7 +3579,7 @@
         <f>A95*$B$6</f>
         <v>40</v>
       </c>
-      <c r="C95" s="28" cm="1">
+      <c r="C95" s="27" cm="1">
         <f t="array" ref="C95">SUMPRODUCT( $A$93 * IF($A$12:$A$17 &lt;= $B95, $A$12:$A$17, $B95), $B$12:$B$17 ) - ($A95 * $B$93)</f>
         <v>36</v>
       </c>
@@ -3463,96 +3589,99 @@
         <v>3</v>
       </c>
       <c r="B96" s="1">
-        <f t="shared" ref="B96:B100" si="36">A96*$B$6</f>
+        <f t="shared" ref="B96:B100" si="19">A96*$B$6</f>
         <v>60</v>
       </c>
-      <c r="C96" s="28" cm="1">
+      <c r="C96" s="27" cm="1">
         <f t="array" ref="C96">SUMPRODUCT( $A$93 * IF($A$12:$A$17 &lt;= $B96, $A$12:$A$17, $B96), $B$12:$B$17 ) - ($A96 * $B$93)</f>
         <v>48.899999999999991</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E96" s="83"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>4</v>
       </c>
       <c r="B97" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="19"/>
         <v>80</v>
       </c>
-      <c r="C97" s="28" cm="1">
+      <c r="C97" s="27" cm="1">
         <f t="array" ref="C97">SUMPRODUCT( $A$93 * IF($A$12:$A$17 &lt;= $B97, $A$12:$A$17, $B97), $B$12:$B$17 ) - ($A97 * $B$93)</f>
         <v>56.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E97" s="83"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>5</v>
       </c>
       <c r="B98" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="C98" s="28" cm="1">
+      <c r="C98" s="27" cm="1">
         <f t="array" ref="C98">SUMPRODUCT( $A$93 * IF($A$12:$A$17 &lt;= $B98, $A$12:$A$17, $B98), $B$12:$B$17 ) - ($A98 * $B$93)</f>
         <v>56</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E98" s="83"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>6</v>
       </c>
       <c r="B99" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="19"/>
         <v>120</v>
       </c>
-      <c r="C99" s="28" cm="1">
+      <c r="C99" s="27" cm="1">
         <f t="array" ref="C99">SUMPRODUCT( $A$93 * IF($A$12:$A$17 &lt;= $B99, $A$12:$A$17, $B99), $B$12:$B$17 ) - ($A99 * $B$93)</f>
         <v>46.799999999999983</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E99" s="83"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>7</v>
       </c>
       <c r="B100" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
-      <c r="C100" s="28" cm="1">
+      <c r="C100" s="27" cm="1">
         <f t="array" ref="C100">SUMPRODUCT( $A$93 * IF($A$12:$A$17 &lt;= $B100, $A$12:$A$17, $B100), $B$12:$B$17 ) - ($A100 * $B$93)</f>
         <v>32.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E100" s="83"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="E101" s="84"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E102" s="83"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
+        <f>A93+0.2</f>
         <v>1.9</v>
       </c>
       <c r="B103" s="5">
         <v>16</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E103" s="83"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>32</v>
       </c>
@@ -3562,8 +3691,9 @@
       <c r="C104" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E104" s="83"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -3571,105 +3701,103 @@
         <f>A105*$B$6</f>
         <v>40</v>
       </c>
-      <c r="C105" s="28" cm="1">
+      <c r="C105" s="27" cm="1">
         <f t="array" ref="C105">SUMPRODUCT( $A$103 * IF($A$12:$A$17 &lt;= $B105, $A$12:$A$17, $B105), $B$12:$B$17 ) - ($A105 * $B$103)</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E105" s="83"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>3</v>
       </c>
       <c r="B106" s="1">
-        <f t="shared" ref="B106:B110" si="37">A106*$B$6</f>
+        <f t="shared" ref="B106:B110" si="20">A106*$B$6</f>
         <v>60</v>
       </c>
-      <c r="C106" s="28" cm="1">
+      <c r="C106" s="27" cm="1">
         <f t="array" ref="C106">SUMPRODUCT( $A$103 * IF($A$12:$A$17 &lt;= $B106, $A$12:$A$17, $B106), $B$12:$B$17 ) - ($A106 * $B$103)</f>
         <v>60.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E106" s="83"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>80</v>
       </c>
-      <c r="C107" s="28" cm="1">
+      <c r="C107" s="27" cm="1">
         <f t="array" ref="C107">SUMPRODUCT( $A$103 * IF($A$12:$A$17 &lt;= $B107, $A$12:$A$17, $B107), $B$12:$B$17 ) - ($A107 * $B$103)</f>
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>5</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
-      <c r="C108" s="28" cm="1">
+      <c r="C108" s="27" cm="1">
         <f t="array" ref="C108">SUMPRODUCT( $A$103 * IF($A$12:$A$17 &lt;= $B108, $A$12:$A$17, $B108), $B$12:$B$17 ) - ($A108 * $B$103)</f>
         <v>72</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>6</v>
       </c>
       <c r="B109" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>120</v>
       </c>
-      <c r="C109" s="28" cm="1">
+      <c r="C109" s="27" cm="1">
         <f t="array" ref="C109">SUMPRODUCT( $A$103 * IF($A$12:$A$17 &lt;= $B109, $A$12:$A$17, $B109), $B$12:$B$17 ) - ($A109 * $B$103)</f>
         <v>63.599999999999994</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>7</v>
       </c>
       <c r="B110" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="20"/>
         <v>140</v>
       </c>
-      <c r="C110" s="28" cm="1">
+      <c r="C110" s="27" cm="1">
         <f t="array" ref="C110">SUMPRODUCT( $A$103 * IF($A$12:$A$17 &lt;= $B110, $A$12:$A$17, $B110), $B$12:$B$17 ) - ($A110 * $B$103)</f>
         <v>49.5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" s="62"/>
+      <c r="C111" s="62"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="C112" s="84"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
+        <f>A93-0.2</f>
         <v>1.5</v>
       </c>
       <c r="B113" s="5">
         <v>16</v>
       </c>
-      <c r="C113" s="1" t="str">
-        <f>C103</f>
-        <v>decrease: 20%</v>
-      </c>
+      <c r="C113" s="84"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
@@ -3678,7 +3806,7 @@
       <c r="B114" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="61" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3690,7 +3818,7 @@
         <f>A115*$B$6</f>
         <v>40</v>
       </c>
-      <c r="C115" s="28" cm="1">
+      <c r="C115" s="27" cm="1">
         <f t="array" ref="C115">SUMPRODUCT( $A$113* IF($A$12:$A$17 &lt;= $B115, $A$12:$A$17, $B115), $B$12:$B$17 ) - ($A115 * $B$113)</f>
         <v>28</v>
       </c>
@@ -3700,23 +3828,23 @@
         <v>3</v>
       </c>
       <c r="B116" s="1">
-        <f t="shared" ref="B116:B120" si="38">A116*$B$6</f>
+        <f t="shared" ref="B116:B120" si="21">A116*$B$6</f>
         <v>60</v>
       </c>
-      <c r="C116" s="28" cm="1">
+      <c r="C116" s="27" cm="1">
         <f t="array" ref="C116">SUMPRODUCT( $A$113* IF($A$12:$A$17 &lt;= $B116, $A$12:$A$17, $B116), $B$12:$B$17 ) - ($A116 * $B$113)</f>
         <v>37.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="7">
         <v>4</v>
       </c>
-      <c r="B117" s="1">
-        <f t="shared" si="38"/>
+      <c r="B117" s="7">
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
-      <c r="C117" s="28" cm="1">
+      <c r="C117" s="85" cm="1">
         <f t="array" ref="C117">SUMPRODUCT( $A$113* IF($A$12:$A$17 &lt;= $B117, $A$12:$A$17, $B117), $B$12:$B$17 ) - ($A117 * $B$113)</f>
         <v>42.5</v>
       </c>
@@ -3726,10 +3854,10 @@
         <v>5</v>
       </c>
       <c r="B118" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="C118" s="28" cm="1">
+      <c r="C118" s="27" cm="1">
         <f t="array" ref="C118">SUMPRODUCT( $A$113* IF($A$12:$A$17 &lt;= $B118, $A$12:$A$17, $B118), $B$12:$B$17 ) - ($A118 * $B$113)</f>
         <v>40</v>
       </c>
@@ -3739,10 +3867,10 @@
         <v>6</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>120</v>
       </c>
-      <c r="C119" s="28" cm="1">
+      <c r="C119" s="27" cm="1">
         <f t="array" ref="C119">SUMPRODUCT( $A$113* IF($A$12:$A$17 &lt;= $B119, $A$12:$A$17, $B119), $B$12:$B$17 ) - ($A119 * $B$113)</f>
         <v>30</v>
       </c>
@@ -3752,43 +3880,40 @@
         <v>7</v>
       </c>
       <c r="B120" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="21"/>
         <v>140</v>
       </c>
-      <c r="C120" s="28" cm="1">
+      <c r="C120" s="27" cm="1">
         <f t="array" ref="C120">SUMPRODUCT( $A$113* IF($A$12:$A$17 &lt;= $B120, $A$12:$A$17, $B120), $B$12:$B$17 ) - ($A120 * $B$113)</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="62"/>
+      <c r="C121" s="62"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C122" s="1" t="str">
-        <f>C112</f>
-        <v>Increase :20%</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C122" s="84"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
+        <f>A93</f>
         <v>1.7</v>
       </c>
       <c r="B123" s="5">
+        <f>B93+2</f>
         <v>18</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C123" s="84"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
@@ -3809,7 +3934,7 @@
         <f>A125*$B$6</f>
         <v>40</v>
       </c>
-      <c r="C125" s="28" cm="1">
+      <c r="C125" s="27" cm="1">
         <f t="array" ref="C125">SUMPRODUCT( $A$123* IF($A$12:$A$17 &lt;= $B125, $A$12:$A$17, $B125), $B$12:$B$17 ) - ($A125 * $B$123)</f>
         <v>32</v>
       </c>
@@ -3819,23 +3944,23 @@
         <v>3</v>
       </c>
       <c r="B126" s="1">
-        <f t="shared" ref="B126:B130" si="39">A126*$B$6</f>
+        <f t="shared" ref="B126:B130" si="22">A126*$B$6</f>
         <v>60</v>
       </c>
-      <c r="C126" s="28" cm="1">
+      <c r="C126" s="27" cm="1">
         <f t="array" ref="C126">SUMPRODUCT( $A$123* IF($A$12:$A$17 &lt;= $B126, $A$12:$A$17, $B126), $B$12:$B$17 ) - ($A126 * $B$123)</f>
         <v>42.899999999999991</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="7">
         <v>4</v>
       </c>
-      <c r="B127" s="1">
-        <f t="shared" si="39"/>
+      <c r="B127" s="7">
+        <f t="shared" si="22"/>
         <v>80</v>
       </c>
-      <c r="C127" s="28" cm="1">
+      <c r="C127" s="85" cm="1">
         <f t="array" ref="C127">SUMPRODUCT( $A$123* IF($A$12:$A$17 &lt;= $B127, $A$12:$A$17, $B127), $B$12:$B$17 ) - ($A127 * $B$123)</f>
         <v>48.7</v>
       </c>
@@ -3845,10 +3970,10 @@
         <v>5</v>
       </c>
       <c r="B128" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
-      <c r="C128" s="28" cm="1">
+      <c r="C128" s="27" cm="1">
         <f t="array" ref="C128">SUMPRODUCT( $A$123* IF($A$12:$A$17 &lt;= $B128, $A$12:$A$17, $B128), $B$12:$B$17 ) - ($A128 * $B$123)</f>
         <v>46</v>
       </c>
@@ -3858,10 +3983,10 @@
         <v>6</v>
       </c>
       <c r="B129" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
-      <c r="C129" s="28" cm="1">
+      <c r="C129" s="27" cm="1">
         <f t="array" ref="C129">SUMPRODUCT( $A$123* IF($A$12:$A$17 &lt;= $B129, $A$12:$A$17, $B129), $B$12:$B$17 ) - ($A129 * $B$123)</f>
         <v>34.799999999999983</v>
       </c>
@@ -3871,43 +3996,40 @@
         <v>7</v>
       </c>
       <c r="B130" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="22"/>
         <v>140</v>
       </c>
-      <c r="C130" s="28" cm="1">
+      <c r="C130" s="27" cm="1">
         <f t="array" ref="C130">SUMPRODUCT( $A$123* IF($A$12:$A$17 &lt;= $B130, $A$12:$A$17, $B130), $B$12:$B$17 ) - ($A130 * $B$123)</f>
         <v>18.5</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A131" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="B131" s="58"/>
-      <c r="C131" s="58"/>
+      <c r="A131" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="62"/>
+      <c r="C131" s="62"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C132" s="1" t="str">
-        <f>C122</f>
-        <v>Increase :20%</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C132" s="84"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
+        <f>A93</f>
         <v>1.7</v>
       </c>
       <c r="B133" s="5">
+        <f>B93-2</f>
         <v>14</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C133" s="84"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
@@ -3928,7 +4050,7 @@
         <f>A135*$B$6</f>
         <v>40</v>
       </c>
-      <c r="C135" s="28" cm="1">
+      <c r="C135" s="27" cm="1">
         <f t="array" ref="C135">SUMPRODUCT( $A$133* IF($A$12:$A$17 &lt;= $B135, $A$12:$A$17, $B135), $B$12:$B$17 ) - ($A135 * $B$133)</f>
         <v>40</v>
       </c>
@@ -3938,10 +4060,10 @@
         <v>3</v>
       </c>
       <c r="B136" s="1">
-        <f t="shared" ref="B136:B140" si="40">A136*$B$6</f>
+        <f t="shared" ref="B136:B140" si="23">A136*$B$6</f>
         <v>60</v>
       </c>
-      <c r="C136" s="28" cm="1">
+      <c r="C136" s="27" cm="1">
         <f t="array" ref="C136">SUMPRODUCT( $A$133* IF($A$12:$A$17 &lt;= $B136, $A$12:$A$17, $B136), $B$12:$B$17 ) - ($A136 * $B$133)</f>
         <v>54.899999999999991</v>
       </c>
@@ -3951,10 +4073,10 @@
         <v>4</v>
       </c>
       <c r="B137" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
-      <c r="C137" s="28" cm="1">
+      <c r="C137" s="27" cm="1">
         <f t="array" ref="C137">SUMPRODUCT( $A$133* IF($A$12:$A$17 &lt;= $B137, $A$12:$A$17, $B137), $B$12:$B$17 ) - ($A137 * $B$133)</f>
         <v>64.7</v>
       </c>
@@ -3964,10 +4086,10 @@
         <v>5</v>
       </c>
       <c r="B138" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
-      <c r="C138" s="28" cm="1">
+      <c r="C138" s="27" cm="1">
         <f t="array" ref="C138">SUMPRODUCT( $A$133* IF($A$12:$A$17 &lt;= $B138, $A$12:$A$17, $B138), $B$12:$B$17 ) - ($A138 * $B$133)</f>
         <v>66</v>
       </c>
@@ -3977,10 +4099,10 @@
         <v>6</v>
       </c>
       <c r="B139" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="23"/>
         <v>120</v>
       </c>
-      <c r="C139" s="28" cm="1">
+      <c r="C139" s="27" cm="1">
         <f t="array" ref="C139">SUMPRODUCT( $A$133* IF($A$12:$A$17 &lt;= $B139, $A$12:$A$17, $B139), $B$12:$B$17 ) - ($A139 * $B$133)</f>
         <v>58.799999999999983</v>
       </c>
@@ -3990,29 +4112,29 @@
         <v>7</v>
       </c>
       <c r="B140" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="23"/>
         <v>140</v>
       </c>
-      <c r="C140" s="28" cm="1">
+      <c r="C140" s="27" cm="1">
         <f t="array" ref="C140">SUMPRODUCT( $A$133* IF($A$12:$A$17 &lt;= $B140, $A$12:$A$17, $B140), $B$12:$B$17 ) - ($A140 * $B$133)</f>
         <v>46.5</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K141" s="24"/>
-      <c r="L141" s="24"/>
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A142" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B142" s="78"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="78"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="79"/>
-      <c r="K142" s="29"/>
-      <c r="L142" s="29"/>
+      <c r="A142" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="68"/>
+      <c r="K142" s="28"/>
+      <c r="L142" s="28"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="7" t="s">
@@ -4031,10 +4153,10 @@
         <v>41</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
+        <v>48</v>
+      </c>
+      <c r="K143" s="28"/>
+      <c r="L143" s="28"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="20" t="s">
@@ -4058,8 +4180,8 @@
         <f>MAX($C$95:$C$100)</f>
         <v>56.7</v>
       </c>
-      <c r="K144" s="29"/>
-      <c r="L144" s="29"/>
+      <c r="K144" s="28"/>
+      <c r="L144" s="28"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" s="20" t="s">
@@ -4083,8 +4205,8 @@
         <f>MAX($C$105:$C$110)</f>
         <v>72</v>
       </c>
-      <c r="K145" s="29"/>
-      <c r="L145" s="29"/>
+      <c r="K145" s="28"/>
+      <c r="L145" s="28"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="20" t="s">
@@ -4108,8 +4230,8 @@
         <f>MAX($C$115:$C$120)</f>
         <v>42.5</v>
       </c>
-      <c r="K146" s="29"/>
-      <c r="L146" s="29"/>
+      <c r="K146" s="28"/>
+      <c r="L146" s="28"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" s="20" t="s">
@@ -4133,8 +4255,8 @@
         <f>MAX($C$125:$C$130)</f>
         <v>48.7</v>
       </c>
-      <c r="K147" s="29"/>
-      <c r="L147" s="29"/>
+      <c r="K147" s="28"/>
+      <c r="L147" s="28"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" s="20" t="s">
@@ -4158,97 +4280,98 @@
         <f>MAX($C$135:$C$140)</f>
         <v>66</v>
       </c>
-      <c r="K148" s="29"/>
-      <c r="L148" s="29"/>
+      <c r="K148" s="28"/>
+      <c r="L148" s="28"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M153" s="24"/>
-      <c r="N153" s="24"/>
-      <c r="O153" s="24"/>
-      <c r="P153" s="24"/>
-      <c r="Q153" s="24"/>
-      <c r="R153" s="24"/>
+      <c r="M153" s="23"/>
+      <c r="N153" s="23"/>
+      <c r="O153" s="23"/>
+      <c r="P153" s="23"/>
+      <c r="Q153" s="23"/>
+      <c r="R153" s="23"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M154" s="29"/>
-      <c r="N154" s="29"/>
-      <c r="O154" s="29"/>
-      <c r="P154" s="29"/>
-      <c r="Q154" s="29"/>
-      <c r="R154" s="29"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="28"/>
+      <c r="O154" s="28"/>
+      <c r="P154" s="28"/>
+      <c r="Q154" s="28"/>
+      <c r="R154" s="28"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M155" s="29"/>
-      <c r="N155" s="29"/>
-      <c r="O155" s="29"/>
-      <c r="P155" s="29"/>
-      <c r="Q155" s="29"/>
-      <c r="R155" s="29"/>
+      <c r="M155" s="28"/>
+      <c r="N155" s="28"/>
+      <c r="O155" s="28"/>
+      <c r="P155" s="28"/>
+      <c r="Q155" s="28"/>
+      <c r="R155" s="28"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M156" s="29"/>
-      <c r="N156" s="29"/>
-      <c r="O156" s="29"/>
-      <c r="P156" s="29"/>
-      <c r="Q156" s="29"/>
-      <c r="R156" s="29"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="28"/>
+      <c r="O156" s="28"/>
+      <c r="P156" s="28"/>
+      <c r="Q156" s="28"/>
+      <c r="R156" s="28"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M157" s="29"/>
-      <c r="N157" s="29"/>
-      <c r="O157" s="29"/>
-      <c r="P157" s="29"/>
-      <c r="Q157" s="29"/>
-      <c r="R157" s="29"/>
+      <c r="M157" s="28"/>
+      <c r="N157" s="28"/>
+      <c r="O157" s="28"/>
+      <c r="P157" s="28"/>
+      <c r="Q157" s="28"/>
+      <c r="R157" s="28"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M158" s="29"/>
-      <c r="N158" s="29"/>
-      <c r="O158" s="29"/>
-      <c r="P158" s="29"/>
-      <c r="Q158" s="29"/>
-      <c r="R158" s="29"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="28"/>
+      <c r="O158" s="28"/>
+      <c r="P158" s="28"/>
+      <c r="Q158" s="28"/>
+      <c r="R158" s="28"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M159" s="29"/>
-      <c r="N159" s="29"/>
-      <c r="O159" s="29"/>
-      <c r="P159" s="29"/>
-      <c r="Q159" s="29"/>
-      <c r="R159" s="29"/>
+      <c r="M159" s="28"/>
+      <c r="N159" s="28"/>
+      <c r="O159" s="28"/>
+      <c r="P159" s="28"/>
+      <c r="Q159" s="28"/>
+      <c r="R159" s="28"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="M160" s="29"/>
-      <c r="N160" s="29"/>
-      <c r="O160" s="29"/>
-      <c r="P160" s="29"/>
-      <c r="Q160" s="29"/>
-      <c r="R160" s="24"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="28"/>
+      <c r="O160" s="28"/>
+      <c r="P160" s="28"/>
+      <c r="Q160" s="28"/>
+      <c r="R160" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A81:E81"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A90:E90"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A61:H61"/>
-    <mergeCell ref="A69:G69"/>
     <mergeCell ref="A71:H71"/>
     <mergeCell ref="A79:G79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="A131:C131"/>
     <mergeCell ref="L21:Q21"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A131:C131"/>
     <mergeCell ref="A121:C121"/>
-    <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
